--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P19_trail15 Features.xlsx
@@ -3851,7 +3851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3862,29 +3862,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3905,115 +3903,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4030,72 +4018,66 @@
         <v>5.25648232761553e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-3.678191446513597</v>
+        <v>3.960281659241958e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>16.56212084097819</v>
+        <v>7.271407710391137e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.960281659241958e-06</v>
+        <v>0.1035542748503391</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.271407710391137e-06</v>
+        <v>0.4153049172055539</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1035542748503391</v>
+        <v>0.182755450495169</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.4153049172055539</v>
+        <v>1.830764423293129</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.182755450495169</v>
+        <v>2.042331567701302</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.804851186496363</v>
+        <v>3.954847803653871</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.042331567701302</v>
+        <v>4.264556224952177e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.954847803653871</v>
+        <v>113793933.865124</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.264556224952177e-15</v>
+        <v>1.034060347119487e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>113793933.865124</v>
+        <v>55.22199180544578</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.034060347119487e-06</v>
+        <v>0.0001491859472592766</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>55.22199180544578</v>
+        <v>9.558981597467074</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001491859472592766</v>
+        <v>1.299713691173345</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.558981597467074</v>
+        <v>0.01363173601681635</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.299713691173345</v>
+        <v>3.010748699566804</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01363173601681635</v>
+        <v>0.9568623926760816</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.010748699566804</v>
+        <v>1.609861590365905</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9568623926760816</v>
+        <v>37</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.609861590365905</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3177314416643095</v>
       </c>
     </row>
@@ -4110,72 +4092,66 @@
         <v>3.681124288930436e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.778493220101558</v>
+        <v>2.762855631530725e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>11.98477497192254</v>
+        <v>7.315249895921926e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.762855631530725e-06</v>
+        <v>0.09358091510222184</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.315249895921926e-06</v>
+        <v>0.4319943357949102</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.09358091510222184</v>
+        <v>0.1948785987025811</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.4319943357949102</v>
+        <v>1.855120409144354</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1948785987025811</v>
+        <v>1.830773408377182</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.842119990338591</v>
+        <v>4.147134576345263</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.830773408377182</v>
+        <v>4.088567641323256e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.147134576345263</v>
+        <v>118620583.954872</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.088567641323256e-15</v>
+        <v>9.989598898551513e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>118620583.954872</v>
+        <v>57.52959312160986</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.989598898551513e-07</v>
+        <v>0.0001157175397006173</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>57.52959312160986</v>
+        <v>8.093511157842583</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001157175397006173</v>
+        <v>1.331929339747188</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.093511157842583</v>
+        <v>0.00758006851188352</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.331929339747188</v>
+        <v>3.258286175808434</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.00758006851188352</v>
+        <v>0.9568412089430718</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.258286175808434</v>
+        <v>1.501810357703977</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9568412089430718</v>
+        <v>25</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.501810357703977</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3815874905677924</v>
       </c>
     </row>
@@ -4190,72 +4166,66 @@
         <v>2.748973969728509e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.279446332049539</v>
+        <v>1.883880526836419e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.367598660802582</v>
+        <v>7.341978838444408e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.883880526836419e-06</v>
+        <v>0.07224786902924242</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.341978838444408e-06</v>
+        <v>0.4159355049587303</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.07224786902924242</v>
+        <v>0.1777381218277186</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.4159355049587303</v>
+        <v>1.851790013008458</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1777381218277186</v>
+        <v>1.961375658351514</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.829865211288822</v>
+        <v>4.119984620571731</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.961375658351514</v>
+        <v>2.560164906948698e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.119984620571731</v>
+        <v>197118627.490447</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.560164906948698e-15</v>
+        <v>6.027656983744415e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>197118627.490447</v>
+        <v>99.47713604123381</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.027656983744415e-07</v>
+        <v>0.0001075628255826719</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>99.47713604123381</v>
+        <v>6.989726341830941</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001075628255826719</v>
+        <v>1.415386682258616</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>6.989726341830941</v>
+        <v>0.005255118914773366</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.415386682258616</v>
+        <v>3.373746867797271</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.005255118914773366</v>
+        <v>0.9560985303606122</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.373746867797271</v>
+        <v>1.509205372089852</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9560985303606122</v>
+        <v>30</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.509205372089852</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.4100627283164118</v>
       </c>
     </row>
@@ -4270,72 +4240,66 @@
         <v>2.322990606023896e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1114489468805216</v>
+        <v>1.240540926202322e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.4537524912789515</v>
+        <v>7.35615748275144e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.240540926202322e-06</v>
+        <v>0.03930465389622782</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.35615748275144e-06</v>
+        <v>0.3446838928557773</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03930465389622782</v>
+        <v>0.119993290541329</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3446838928557773</v>
+        <v>1.85870065446743</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.119993290541329</v>
+        <v>2.356788477294559</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.843754034632444</v>
+        <v>4.16210163843572</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.356788477294559</v>
+        <v>2.50861356919079e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.16210163843572</v>
+        <v>203452815.3618914</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.50861356919079e-15</v>
+        <v>5.832757669153762e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>203452815.3618914</v>
+        <v>103.8391620803431</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.832757669153762e-07</v>
+        <v>0.0001123534192513036</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>103.8391620803431</v>
+        <v>6.592483774918557</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001123534192513036</v>
+        <v>1.493964433737838</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>6.592483774918557</v>
+        <v>0.004882974238481881</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.493964433737838</v>
+        <v>3.421987056945237</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.004882974238481881</v>
+        <v>0.9576212619475396</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.421987056945237</v>
+        <v>1.523871592306893</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9576212619475396</v>
+        <v>30</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.523871592306893</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.4124940577901533</v>
       </c>
     </row>
@@ -4350,72 +4314,66 @@
         <v>2.21066464461881e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1775495801171643</v>
+        <v>7.818495064980923e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.196682427055986</v>
+        <v>7.361177306574826e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.818495064980923e-07</v>
+        <v>0.006549476433391901</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.361177306574826e-06</v>
+        <v>0.2450544425405509</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.006549476433391901</v>
+        <v>0.05990753311766821</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2450544425405509</v>
+        <v>1.862436177396201</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05990753311766821</v>
+        <v>2.112963920686128</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.841395682211844</v>
+        <v>4.162375390051771</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.112963920686128</v>
+        <v>2.508283606430798e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.162375390051771</v>
+        <v>203593805.0014302</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.508283606430798e-15</v>
+        <v>5.852341468075305e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>203593805.0014302</v>
+        <v>103.9694526974966</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.852341468075305e-07</v>
+        <v>0.000119633568751159</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>103.9694526974966</v>
+        <v>7.84170974607173</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000119633568751159</v>
+        <v>1.327755600931562</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.84170974607173</v>
+        <v>0.007356556667767629</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.327755600931562</v>
+        <v>3.354136548061085</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007356556667767629</v>
+        <v>0.9584995869956338</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.354136548061085</v>
+        <v>1.532913937810398</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9584995869956338</v>
+        <v>30</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.532913937810398</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.4623280658372917</v>
       </c>
     </row>
@@ -4430,72 +4388,66 @@
         <v>2.224478487883847e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1712378504377104</v>
+        <v>7.003979100679316e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.207132847769271</v>
+        <v>7.359866949129166e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>7.003979100679316e-07</v>
+        <v>-0.0164370997013896</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.359866949129166e-06</v>
+        <v>0.1643398790158751</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0164370997013896</v>
+        <v>0.02720046311197484</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1643398790158751</v>
+        <v>1.869667687651941</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02720046311197484</v>
+        <v>2.055350014563719</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.849764361721776</v>
+        <v>4.221367211803049</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.055350014563719</v>
+        <v>2.438669040631868e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.221367211803049</v>
+        <v>218687257.3726913</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.438669040631868e-15</v>
+        <v>5.469390009800707e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>218687257.3726913</v>
+        <v>116.6271923948151</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.469390009800707e-07</v>
+        <v>0.0001150709496306368</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>116.6271923948151</v>
+        <v>9.016962448177281</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001150709496306368</v>
+        <v>1.190968708438806</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.016962448177281</v>
+        <v>0.009355913959186845</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.190968708438806</v>
+        <v>3.295292896817636</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009355913959186845</v>
+        <v>0.9562019886757994</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.295292896817636</v>
+        <v>1.485746706784753</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9562019886757994</v>
+        <v>36</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.485746706784753</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.511707799410333</v>
       </c>
     </row>
@@ -4510,72 +4462,66 @@
         <v>2.261857994452975e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1850436189274705</v>
+        <v>7.003979100679316e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.237785362996082</v>
+        <v>7.354468469001832e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>7.003979100679316e-07</v>
+        <v>-0.0302768341321331</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.354468469001832e-06</v>
+        <v>0.1138232669940466</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.0302768341321331</v>
+        <v>0.01384326850736995</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1138232669940466</v>
+        <v>1.878236610860588</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.01384326850736995</v>
+        <v>2.011266495026054</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.855833608345264</v>
+        <v>4.331945003514869</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.011266495026054</v>
+        <v>2.3157584703298e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.331945003514869</v>
+        <v>232535711.4142743</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>2.3157584703298e-15</v>
+        <v>5.15135687437911e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>232535711.4142743</v>
+        <v>125.2196768047572</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.15135687437911e-07</v>
+        <v>0.0001014687256278757</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>125.2196768047572</v>
+        <v>8.082003756686358</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001014687256278757</v>
+        <v>1.173875603802815</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.082003756686358</v>
+        <v>0.006627813845413745</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.173875603802815</v>
+        <v>3.385840404122886</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.006627813845413745</v>
+        <v>0.9547799773955378</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.385840404122886</v>
+        <v>1.543676638913839</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9547799773955378</v>
+        <v>36</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.543676638913839</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.518889514411573</v>
       </c>
     </row>
@@ -4590,72 +4536,66 @@
         <v>2.287055038405583e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2327759570158952</v>
+        <v>7.003979100679316e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.234581738195976</v>
+        <v>7.346574490584103e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>7.003979100679316e-07</v>
+        <v>-0.038258984869019</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.346574490584103e-06</v>
+        <v>0.08573546005056941</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.038258984869019</v>
+        <v>0.008803427121219601</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08573546005056941</v>
+        <v>1.906526619453089</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.008803427121219601</v>
+        <v>2.04055787818285</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.898788634216456</v>
+        <v>4.507500603593717</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.04055787818285</v>
+        <v>2.13888553245073e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.507500603593717</v>
+        <v>252778994.4229572</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.13888553245073e-15</v>
+        <v>4.75588436306752e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>252778994.4229572</v>
+        <v>136.6688394677677</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.75588436306752e-07</v>
+        <v>9.603745216908679e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>136.6688394677677</v>
+        <v>6.275678242027257</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>9.603745216908679e-05</v>
+        <v>1.513403859554735</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>6.275678242027257</v>
+        <v>0.003782352211528762</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.513403859554735</v>
+        <v>3.60553402751574</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.003782352211528762</v>
+        <v>0.9548656844738742</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.60553402751574</v>
+        <v>1.438348178237031</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9548656844738742</v>
+        <v>35</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.438348178237031</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.5219900640019293</v>
       </c>
     </row>
@@ -4670,72 +4610,66 @@
         <v>2.29200952073958e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2915333530505005</v>
+        <v>7.003979100679316e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.195039407237295</v>
+        <v>7.337237656557194e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>7.003979100679316e-07</v>
+        <v>-0.0427125673922724</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.337237656557194e-06</v>
+        <v>0.07206895165235382</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.0427125673922724</v>
+        <v>0.00701399529167813</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.07206895165235382</v>
+        <v>1.913764517770436</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.00701399529167813</v>
+        <v>2.060898819838758</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.904691432679458</v>
+        <v>4.89985186302441</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.060898819838758</v>
+        <v>1.447950588789689e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.89985186302441</v>
+        <v>368195354.6285678</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.447950588789689e-15</v>
+        <v>3.272114839646455e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>368195354.6285678</v>
+        <v>196.2955035882178</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.272114839646455e-07</v>
+        <v>0.0001051884173189908</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>196.2955035882178</v>
+        <v>6.354195652306417</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001051884173189908</v>
+        <v>2.112016111992143</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>6.354195652306417</v>
+        <v>0.004247066751155935</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>2.112016111992143</v>
+        <v>3.665226802293283</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.004247066751155935</v>
+        <v>0.9541939616189747</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.665226802293283</v>
+        <v>1.388466084362936</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9541939616189747</v>
+        <v>35</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.388466084362936</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.5606289975787452</v>
       </c>
     </row>
@@ -4750,72 +4684,66 @@
         <v>2.276491720928601e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3501859383721399</v>
+        <v>7.003979100679316e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.137102634943197</v>
+        <v>7.327201246815356e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>7.003979100679316e-07</v>
+        <v>-0.04464413441681987</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.327201246815356e-06</v>
+        <v>0.06796540302035262</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04464413441681987</v>
+        <v>0.006610295525251266</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.06796540302035262</v>
+        <v>1.912431953729967</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.006610295525251266</v>
+        <v>2.049943923855598</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.904186294925034</v>
+        <v>5.582777312840399</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>2.049943923855598</v>
+        <v>1.785867269418727e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.582777312840399</v>
+        <v>287610536.0747852</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.785867269418727e-15</v>
+        <v>4.162011165384982e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>287610536.0747852</v>
+        <v>147.7266198938958</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.162011165384982e-07</v>
+        <v>0.0001208602046684481</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>147.7266198938958</v>
+        <v>8.263653066257374</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001208602046684481</v>
+        <v>1.757992356353033</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.263653066257374</v>
+        <v>0.008253297063646534</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.757992356353033</v>
+        <v>3.600652796311644</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.008253297063646534</v>
+        <v>0.9521999444294972</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.600652796311644</v>
+        <v>1.422464705404833</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9521999444294972</v>
+        <v>27</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.422464705404833</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.5935960169602877</v>
       </c>
     </row>
@@ -4830,72 +4758,66 @@
         <v>2.242389650983863e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.4056247185885898</v>
+        <v>7.003979100679316e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.070508290945865</v>
+        <v>7.317106796302078e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>7.003979100679316e-07</v>
+        <v>-0.04430715895157489</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.317106796302078e-06</v>
+        <v>0.07147443924563841</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.04430715895157489</v>
+        <v>0.007069728593009778</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.07147443924563841</v>
+        <v>1.888721166349208</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.007069728593009778</v>
+        <v>2.216563354096337</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.872522124222714</v>
+        <v>5.05849459539292</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.216563354096337</v>
+        <v>2.182751147632361e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.05849459539292</v>
+        <v>241114700.9105425</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.182751147632361e-15</v>
+        <v>4.961058741897763e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>241114700.9105425</v>
+        <v>126.897073350828</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.961058741897763e-07</v>
+        <v>0.0001047313186233961</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>126.897073350828</v>
+        <v>9.598900119865284</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001047313186233961</v>
+        <v>1.269342126916312</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.598900119865284</v>
+        <v>0.009649826766610199</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.269342126916312</v>
+        <v>3.536176305611693</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.009649826766610199</v>
+        <v>0.9515343378222759</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.536176305611693</v>
+        <v>1.478927190930674</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9515343378222759</v>
+        <v>21</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.478927190930674</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.5991324348853879</v>
       </c>
     </row>
@@ -4910,72 +4832,66 @@
         <v>2.193283765016937e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4561624515360093</v>
+        <v>7.003979100679316e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.9970199877264658</v>
+        <v>7.307363850449146e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>7.003979100679316e-07</v>
+        <v>-0.04369933206671306</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.307363850449146e-06</v>
+        <v>0.07610286230438477</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.04369933206671306</v>
+        <v>0.007701005039301943</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.07610286230438477</v>
+        <v>1.837681535645648</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.007701005039301943</v>
+        <v>1.742696205163974</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.795516211904174</v>
+        <v>5.6357237400624</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.742696205163974</v>
+        <v>6.723996995767975e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.6357237400624</v>
+        <v>79326463.30336477</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6.723996995767975e-15</v>
+        <v>1.490861509853987e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>79326463.30336477</v>
+        <v>42.31201372950565</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.490861509853987e-06</v>
+        <v>0.0001095504246608827</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>42.31201372950565</v>
+        <v>7.830238071198716</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001095504246608827</v>
+        <v>1.687542288337581</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>7.830238071198716</v>
+        <v>0.006716824462043069</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.687542288337581</v>
+        <v>3.550733676719909</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.006716824462043069</v>
+        <v>0.9483624657764844</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.550733676719909</v>
+        <v>1.662635067201881</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9483624657764844</v>
+        <v>21</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.662635067201881</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.4554832447544669</v>
       </c>
     </row>
@@ -4990,72 +4906,66 @@
         <v>2.133891815591395e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.4992594696685977</v>
+        <v>7.003979100679316e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.9239867230904926</v>
+        <v>7.297803550672204e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>7.003979100679316e-07</v>
+        <v>-0.04494527379726967</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.297803550672204e-06</v>
+        <v>0.0782884174055291</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.04494527379726967</v>
+        <v>0.008149347382332368</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.0782884174055291</v>
+        <v>1.827021565099935</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.008149347382332368</v>
+        <v>1.744232838250676</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.780343117837828</v>
+        <v>4.480289118724433</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.744232838250676</v>
+        <v>1.063934328667135e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.480289118724433</v>
+        <v>51002353.94798486</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.063934328667135e-14</v>
+        <v>2.310760444592919e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>51002353.94798486</v>
+        <v>27.67548648257591</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>2.310760444592919e-06</v>
+        <v>0.0001437771029358312</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>27.67548648257591</v>
+        <v>7.655497726135202</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001437771029358312</v>
+        <v>2.154430560844335</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.655497726135202</v>
+        <v>0.008426293693411809</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>2.154430560844335</v>
+        <v>3.35255694344993</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.008426293693411809</v>
+        <v>0.9484984541270111</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.35255694344993</v>
+        <v>1.631717757702495</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9484984541270111</v>
+        <v>21</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.631717757702495</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2914054346841509</v>
       </c>
     </row>
@@ -5070,72 +4980,66 @@
         <v>2.066712264948942e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5322550852810791</v>
+        <v>7.003037020269356e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.8660450910291955</v>
+        <v>7.288113753642952e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>7.003037020269356e-07</v>
+        <v>-0.04734027720926069</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.288113753642952e-06</v>
+        <v>0.08040551605422779</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.04734027720926069</v>
+        <v>0.008706277493296177</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.08040551605422779</v>
+        <v>1.813875040989742</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.008706277493296177</v>
+        <v>1.765796194763916</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.762735675323582</v>
+        <v>4.407589876230932</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.765796194763916</v>
+        <v>1.099321063123441e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.407589876230932</v>
+        <v>50316739.18090908</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.099321063123441e-14</v>
+        <v>2.338232822385565e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>50316739.18090908</v>
+        <v>27.83232751083714</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.338232822385565e-06</v>
+        <v>0.0001222588331388177</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>27.83232751083714</v>
+        <v>7.951311965824399</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001222588331388177</v>
+        <v>1.335130766873145</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.951311965824399</v>
+        <v>0.007729614462526534</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.335130766873145</v>
+        <v>3.193896694795026</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.007729614462526534</v>
+        <v>0.9490687249942704</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.193896694795026</v>
+        <v>1.694459501285601</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9490687249942704</v>
+        <v>21</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.694459501285601</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2552368602612389</v>
       </c>
     </row>
@@ -5150,72 +5054,66 @@
         <v>1.9945995641625e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5553553991253839</v>
+        <v>6.899969730033467e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.8302423755465549</v>
+        <v>7.278307762072203e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>6.899969730033467e-07</v>
+        <v>-0.04902036193599108</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.278307762072203e-06</v>
+        <v>0.0832557142896848</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.04902036193599108</v>
+        <v>0.009334175434925894</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0832557142896848</v>
+        <v>1.815742770070916</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.009334175434925894</v>
+        <v>1.742665007847863</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.762082206828932</v>
+        <v>4.419111859250913</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.742665007847863</v>
+        <v>1.093596000495258e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.419111859250913</v>
+        <v>50778264.52046774</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.093596000495258e-14</v>
+        <v>2.317967754479617e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>50778264.52046774</v>
+        <v>28.19763084284702</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.317967754479617e-06</v>
+        <v>0.0001238449457286221</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>28.19763084284702</v>
+        <v>8.449019814514854</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001238449457286221</v>
+        <v>1.221943533303272</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.449019814514854</v>
+        <v>0.00884078734816587</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.221943533303272</v>
+        <v>2.98939213274059</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.00884078734816587</v>
+        <v>0.9510483425635665</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.98939213274059</v>
+        <v>1.696391536442599</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9510483425635665</v>
+        <v>28</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.696391536442599</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2410708993559592</v>
       </c>
     </row>
@@ -5230,72 +5128,66 @@
         <v>1.922333371176009e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.5750144426906464</v>
+        <v>6.678741034339652e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.8024535815730038</v>
+        <v>7.268647817922034e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>6.678741034339652e-07</v>
+        <v>-0.04945524014196385</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.268647817922034e-06</v>
+        <v>0.08601467090175488</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.04945524014196385</v>
+        <v>0.009843557626281153</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.08601467090175488</v>
+        <v>1.814485310590963</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.009843557626281153</v>
+        <v>1.742765683865491</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.763865677863422</v>
+        <v>4.408780743151191</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.742765683865491</v>
+        <v>1.098727262543719e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.408780743151191</v>
+        <v>51691527.49297434</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.098727262543719e-14</v>
+        <v>2.284012519873017e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>51691527.49297434</v>
+        <v>29.35814643692581</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.284012519873017e-06</v>
+        <v>0.0001255787868941346</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>29.35814643692581</v>
+        <v>8.214647869430594</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001255787868941346</v>
+        <v>1.264887231220171</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.214647869430594</v>
+        <v>0.008474111746404344</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.264887231220171</v>
+        <v>2.968646540860302</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.008474111746404344</v>
+        <v>0.9517749569604164</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.968646540860302</v>
+        <v>1.664666350598017</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9517749569604164</v>
+        <v>28</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.664666350598017</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2310068974261721</v>
       </c>
     </row>
@@ -5672,7 +5564,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.420076876357546</v>
+        <v>1.437020969920324</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.738694419601506</v>
@@ -5761,7 +5653,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.434913875724968</v>
+        <v>1.454303025255183</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.491584957677046</v>
@@ -5850,7 +5742,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.470394901967038</v>
+        <v>1.48919336379787</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.359876438354045</v>
@@ -5939,7 +5831,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.513083292286354</v>
+        <v>1.530234623152829</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.311230399113698</v>
@@ -6028,7 +5920,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.573381584418665</v>
+        <v>1.593641576954916</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.372030970343439</v>
@@ -6117,7 +6009,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.541370737923216</v>
+        <v>1.561737371676382</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.652290571381168</v>
@@ -6206,7 +6098,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.553744882449351</v>
+        <v>1.57489125716739</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.620518632384194</v>
@@ -6295,7 +6187,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.578122517246294</v>
+        <v>1.599340053552549</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.903633400762088</v>
@@ -6384,7 +6276,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.555315779379485</v>
+        <v>1.575628115477035</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.477145776201695</v>
@@ -6473,7 +6365,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.570001304349745</v>
+        <v>1.594311434516076</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.88968428028669</v>
@@ -6562,7 +6454,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.587703290748318</v>
+        <v>1.609730572136182</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.592533990164127</v>
@@ -6651,7 +6543,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.582672212022172</v>
+        <v>1.608992442669661</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.694025863946583</v>
@@ -6740,7 +6632,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.580651724700438</v>
+        <v>1.61028213165914</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.755738420510501</v>
@@ -6829,7 +6721,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.566593991347261</v>
+        <v>1.589909754540993</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.73235729166788</v>
@@ -6918,7 +6810,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.587966251941747</v>
+        <v>1.613265321740222</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.754369001114244</v>
@@ -7007,7 +6899,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.574386690244616</v>
+        <v>1.601321647568432</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.856891434721589</v>
@@ -7096,7 +6988,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.561376047547888</v>
+        <v>1.591714312377368</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.744661138311262</v>
@@ -7185,7 +7077,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.539213394885202</v>
+        <v>1.568798304393468</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.536233516040947</v>
@@ -7274,7 +7166,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.569890892698583</v>
+        <v>1.599721873163352</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.572729639444297</v>
@@ -7363,7 +7255,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.582686954877999</v>
+        <v>1.614207100077478</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.603649166413304</v>
@@ -7452,7 +7344,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.647743545542799</v>
+        <v>1.674856732962467</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.742887937710241</v>
@@ -7541,7 +7433,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.659489609800321</v>
+        <v>1.688492310010731</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.66751050353834</v>
@@ -7630,7 +7522,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.667405489023321</v>
+        <v>1.699669347447561</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.756735069433233</v>
@@ -7719,7 +7611,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.68110471085296</v>
+        <v>1.712982178664674</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.820400448445744</v>
@@ -7808,7 +7700,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.687314461090771</v>
+        <v>1.717081723599702</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.728146236748761</v>
@@ -7897,7 +7789,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.692837098555239</v>
+        <v>1.72278376510585</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.703684133768308</v>
@@ -7986,7 +7878,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.69985379020603</v>
+        <v>1.726545750213402</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.664133585704654</v>
@@ -8075,7 +7967,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.703021047201549</v>
+        <v>1.733252806682273</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.872133602435957</v>
@@ -8164,7 +8056,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.712054379569887</v>
+        <v>1.737743517519573</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.429924629021606</v>
@@ -8253,7 +8145,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.702714575631091</v>
+        <v>1.734024373871501</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.864603894620689</v>
@@ -8342,7 +8234,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.697628424297586</v>
+        <v>1.733370650649853</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.632441304149182</v>
@@ -8431,7 +8323,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.728975262772474</v>
+        <v>1.762655851053964</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.440859732582676</v>
@@ -8520,7 +8412,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.75259381667864</v>
+        <v>1.786313920192463</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.678920532444997</v>
@@ -8609,7 +8501,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.750483946628024</v>
+        <v>1.783923897328945</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.776486738773002</v>
@@ -8698,7 +8590,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.725654373738951</v>
+        <v>1.759447289689653</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.82524633503477</v>
@@ -8787,7 +8679,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.692476525812751</v>
+        <v>1.728201116258979</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.771836672643618</v>
@@ -8876,7 +8768,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.690906572787781</v>
+        <v>1.727388087209016</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.718343671308535</v>
@@ -8965,7 +8857,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.678598754809821</v>
+        <v>1.711546902078228</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.571891080611469</v>
@@ -9054,7 +8946,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.658598157740296</v>
+        <v>1.694993103116948</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.628513355631439</v>
@@ -9143,7 +9035,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.651148985239655</v>
+        <v>1.688231329239143</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.754980330308558</v>
@@ -9232,7 +9124,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.641149351341301</v>
+        <v>1.676847171618037</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.660589691640875</v>
@@ -9321,7 +9213,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.614032576407238</v>
+        <v>1.651652879988017</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.781531680708765</v>
@@ -9410,7 +9302,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.59254875197166</v>
+        <v>1.625036542216073</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.455499286027864</v>
@@ -9499,7 +9391,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.601855352322846</v>
+        <v>1.63497198295685</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.51876673962278</v>
@@ -9588,7 +9480,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.621728456382685</v>
+        <v>1.652593310536002</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.54032032356842</v>
@@ -9677,7 +9569,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.609052340433585</v>
+        <v>1.635185116790184</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.740173897591331</v>
@@ -9766,7 +9658,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.587087174640834</v>
+        <v>1.606102354654617</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.757366038574711</v>
@@ -9855,7 +9747,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.569862100036154</v>
+        <v>1.590059810590745</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.859992263277879</v>
@@ -9944,7 +9836,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.554670504125858</v>
+        <v>1.571027560772353</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.672014175257281</v>
@@ -10033,7 +9925,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.569534640214102</v>
+        <v>1.583398780722699</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.534822628300353</v>
@@ -10122,7 +10014,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.592934180786256</v>
+        <v>1.605134550640271</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.628236483656108</v>
@@ -10211,7 +10103,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.591622256999104</v>
+        <v>1.602113704008331</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.786320249074879</v>
@@ -10300,7 +10192,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.590158184306701</v>
+        <v>1.59892918471789</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.897656835539106</v>
@@ -10389,7 +10281,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.591402928994194</v>
+        <v>1.592823016350555</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.80203265901151</v>
@@ -10478,7 +10370,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.556626407821157</v>
+        <v>1.56338211182579</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.769466629024345</v>
@@ -10567,7 +10459,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.559088403355581</v>
+        <v>1.561240684843971</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.804120937936188</v>
@@ -10656,7 +10548,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.596628032715677</v>
+        <v>1.593140709372282</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.550178666623787</v>
@@ -10745,7 +10637,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.593091673755325</v>
+        <v>1.58848274171084</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.625560208076052</v>
@@ -10834,7 +10726,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.594886782464282</v>
+        <v>1.594231138443069</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.953550189857642</v>
@@ -10923,7 +10815,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.593325432802582</v>
+        <v>1.585724227251804</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.661462920307998</v>
@@ -11012,7 +10904,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.627634992271004</v>
+        <v>1.619299638907009</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.044557168719793</v>
@@ -11298,7 +11190,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.45237150735204</v>
+        <v>1.454220296380886</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.700445021875974</v>
@@ -11387,7 +11279,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.451438653748789</v>
+        <v>1.454023212012958</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.47828241975806</v>
@@ -11476,7 +11368,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.469366418022414</v>
+        <v>1.470814077064384</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.445950247728895</v>
@@ -11565,7 +11457,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.477249023682574</v>
+        <v>1.4818967032525</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.406674953652132</v>
@@ -11654,7 +11546,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.492545025181251</v>
+        <v>1.49333884078474</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.646617182503328</v>
@@ -11743,7 +11635,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.483246250514482</v>
+        <v>1.484019872875224</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.511985154852798</v>
@@ -11832,7 +11724,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.493616370039493</v>
+        <v>1.493657047864066</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.666091448601415</v>
@@ -11921,7 +11813,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.505252953490078</v>
+        <v>1.503012974911254</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.63620195217974</v>
@@ -12010,7 +11902,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.501289346288986</v>
+        <v>1.496029974557364</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.435893561898272</v>
@@ -12099,7 +11991,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.514844412085856</v>
+        <v>1.51468115427702</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.522289974578209</v>
@@ -12188,7 +12080,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.537731896269224</v>
+        <v>1.537864475613849</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.673906354423512</v>
@@ -12277,7 +12169,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.546870758889755</v>
+        <v>1.547265360423224</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.847921064508972</v>
@@ -12366,7 +12258,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.547271622771573</v>
+        <v>1.548169138692346</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.877950421515459</v>
@@ -12455,7 +12347,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.550747517272542</v>
+        <v>1.55555722767195</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.951132668732043</v>
@@ -12544,7 +12436,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.572488316615374</v>
+        <v>1.572466438260522</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.064776623965611</v>
@@ -12633,7 +12525,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.548143503818443</v>
+        <v>1.54280132540613</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.073648029287071</v>
@@ -12722,7 +12614,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.550478977978188</v>
+        <v>1.552849662918006</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.859347786878413</v>
@@ -12811,7 +12703,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.547764474786581</v>
+        <v>1.54946894612665</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.685731602864458</v>
@@ -12900,7 +12792,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.57065590044502</v>
+        <v>1.568638526327332</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.961621526014805</v>
@@ -12989,7 +12881,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.580902527533757</v>
+        <v>1.578567610550859</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.952077912279494</v>
@@ -13078,7 +12970,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.605930454073897</v>
+        <v>1.601191901389075</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.941538861082607</v>
@@ -13167,7 +13059,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.6014531444816</v>
+        <v>1.596064905970935</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.016103856047078</v>
@@ -13256,7 +13148,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.594700098971688</v>
+        <v>1.592786111990254</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.752872416669631</v>
@@ -13345,7 +13237,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.593654188593368</v>
+        <v>1.5971206171236</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.903724715211584</v>
@@ -13434,7 +13326,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.589549384600131</v>
+        <v>1.592538457830438</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.905729600357743</v>
@@ -13523,7 +13415,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.579600541622582</v>
+        <v>1.58465944551022</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.955213872568818</v>
@@ -13612,7 +13504,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.583601154243157</v>
+        <v>1.587847243522145</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.839488154485286</v>
@@ -13701,7 +13593,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.585761709473677</v>
+        <v>1.59200358510224</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.916049498484833</v>
@@ -13790,7 +13682,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.574917530865811</v>
+        <v>1.576898669427552</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.69904015197739</v>
@@ -13879,7 +13771,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.575965597191393</v>
+        <v>1.583385472825488</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.039184250679962</v>
@@ -13968,7 +13860,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.59410795814363</v>
+        <v>1.603771983205562</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.901748410405014</v>
@@ -14057,7 +13949,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.604958530479328</v>
+        <v>1.616099152780948</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.827151444829429</v>
@@ -14146,7 +14038,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.618080067372698</v>
+        <v>1.630342043344448</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.750293666594183</v>
@@ -14235,7 +14127,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.617763692693683</v>
+        <v>1.632671109132717</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.164936327303252</v>
@@ -14324,7 +14216,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.593089926303088</v>
+        <v>1.611335612004257</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.019625184134352</v>
@@ -14413,7 +14305,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.583633662210003</v>
+        <v>1.598175187178396</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.001454184617389</v>
@@ -14502,7 +14394,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.587379224026487</v>
+        <v>1.603715257315658</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.173062608372173</v>
@@ -14591,7 +14483,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.582879604869166</v>
+        <v>1.596639388403464</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.669124444054146</v>
@@ -14680,7 +14572,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.571068899826378</v>
+        <v>1.583082012197561</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.895866194256992</v>
@@ -14769,7 +14661,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.562180565343527</v>
+        <v>1.576570714415245</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.058051037620537</v>
@@ -14858,7 +14750,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.569270617841598</v>
+        <v>1.585727607922159</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.947131451201155</v>
@@ -14947,7 +14839,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.557278971158326</v>
+        <v>1.57626422906467</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.032139873348866</v>
@@ -15036,7 +14928,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.541309631632067</v>
+        <v>1.556738873777326</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.540534333055048</v>
@@ -15125,7 +15017,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.555839613503681</v>
+        <v>1.574491787742809</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.985384682093687</v>
@@ -15214,7 +15106,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.515947531487132</v>
+        <v>1.530286505118295</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.069879906209695</v>
@@ -15303,7 +15195,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.50938427059966</v>
+        <v>1.528467440814832</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.058712588914078</v>
@@ -15392,7 +15284,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.512781827180551</v>
+        <v>1.527464769836862</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.092998310135751</v>
@@ -15481,7 +15373,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.509881170270712</v>
+        <v>1.526408024003837</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.093179652044976</v>
@@ -15570,7 +15462,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.510249709985832</v>
+        <v>1.526526628942294</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.10311114389543</v>
@@ -15659,7 +15551,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.527882695174365</v>
+        <v>1.54340209807639</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.117608515888408</v>
@@ -15748,7 +15640,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.542333079024882</v>
+        <v>1.560196324566028</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.105226324300976</v>
@@ -15837,7 +15729,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.548794944436209</v>
+        <v>1.566677623255277</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.062553978015899</v>
@@ -15926,7 +15818,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.542773975457084</v>
+        <v>1.562305616067364</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.03347380953082</v>
@@ -16015,7 +15907,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.548761498930045</v>
+        <v>1.566486845932871</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.012437752345482</v>
@@ -16104,7 +15996,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.541966034279444</v>
+        <v>1.56537979983465</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.054445432015901</v>
@@ -16193,7 +16085,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.537605697593492</v>
+        <v>1.557562596384227</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.062721052149725</v>
@@ -16282,7 +16174,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.553128642703738</v>
+        <v>1.572039322893666</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.085426568899854</v>
@@ -16371,7 +16263,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.553210545165116</v>
+        <v>1.567712967190263</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.083047275145696</v>
@@ -16460,7 +16352,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.554233289505714</v>
+        <v>1.573398951033967</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.076126139061977</v>
@@ -16549,7 +16441,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.615055466817752</v>
+        <v>1.633952495304621</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.36381109817501</v>
@@ -16638,7 +16530,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.640250262873904</v>
+        <v>1.65516549565903</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.779249098110018</v>
@@ -16924,7 +16816,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.783892572551995</v>
+        <v>1.776066110673033</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.659444220927082</v>
@@ -17013,7 +16905,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.783995847630631</v>
+        <v>1.769471762936264</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.326718113774744</v>
@@ -17102,7 +16994,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.796410846364998</v>
+        <v>1.781784083031591</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.185955830579298</v>
@@ -17191,7 +17083,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.804466690546334</v>
+        <v>1.778839580293665</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.330417232996465</v>
@@ -17280,7 +17172,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.823208749878456</v>
+        <v>1.79250024442287</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.381209524739368</v>
@@ -17369,7 +17261,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.817480422568297</v>
+        <v>1.794540892587399</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.86658439310607</v>
@@ -17458,7 +17350,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.823477143718981</v>
+        <v>1.792812560912852</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.895859761619403</v>
@@ -17547,7 +17439,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.835429618442582</v>
+        <v>1.800076329917043</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.966178845628744</v>
@@ -17636,7 +17528,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.83046687109446</v>
+        <v>1.791363813172054</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.603019988158557</v>
@@ -17725,7 +17617,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.829424430272807</v>
+        <v>1.793204771319557</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.209241519454941</v>
@@ -17814,7 +17706,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.833946709945823</v>
+        <v>1.80019689250089</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.924542080486132</v>
@@ -17903,7 +17795,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.833546784581837</v>
+        <v>1.797999799177821</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.465005366487346</v>
@@ -17992,7 +17884,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.8225326093527</v>
+        <v>1.793740896096889</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.765885524006428</v>
@@ -18081,7 +17973,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.81513595389432</v>
+        <v>1.784986575771068</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.667982028831992</v>
@@ -18170,7 +18062,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.822853244844816</v>
+        <v>1.79758441201964</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.326993892898868</v>
@@ -18259,7 +18151,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.827729314028121</v>
+        <v>1.805036520504055</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.022493954582648</v>
@@ -18348,7 +18240,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.83564711710648</v>
+        <v>1.818526062202528</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.688005021903312</v>
@@ -18437,7 +18329,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.824596248482489</v>
+        <v>1.808708309072903</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.175823257522227</v>
@@ -18526,7 +18418,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.829110418320443</v>
+        <v>1.820465228603249</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.756912184182848</v>
@@ -18615,7 +18507,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.831541438156054</v>
+        <v>1.823581728779191</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.457807854663046</v>
@@ -18704,7 +18596,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.836025257428737</v>
+        <v>1.828284983794315</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.478438057039868</v>
@@ -18793,7 +18685,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.838702546305349</v>
+        <v>1.835599712217028</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.131789519945978</v>
@@ -18882,7 +18774,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.840833142636783</v>
+        <v>1.841674553269727</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.887964962131597</v>
@@ -18971,7 +18863,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.837308356145812</v>
+        <v>1.840694563221945</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.275726855531589</v>
@@ -19060,7 +18952,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.84541179178002</v>
+        <v>1.851538277033425</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.474845730597528</v>
@@ -19149,7 +19041,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.849825710774204</v>
+        <v>1.849781077367501</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.044385536519462</v>
@@ -19238,7 +19130,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.853604786892894</v>
+        <v>1.853484354841084</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.72480175321756</v>
@@ -19327,7 +19219,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.867424192941874</v>
+        <v>1.868872404769868</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.705070082320941</v>
@@ -19416,7 +19308,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.862111727161043</v>
+        <v>1.863694638158638</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.84805640102738</v>
@@ -19505,7 +19397,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.863270730955035</v>
+        <v>1.863585326419099</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.313794964319886</v>
@@ -19594,7 +19486,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.865099111877899</v>
+        <v>1.866967689316232</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.097165062633259</v>
@@ -19683,7 +19575,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.867957649834825</v>
+        <v>1.867512756528884</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.230512978296667</v>
@@ -19772,7 +19664,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.875253380151175</v>
+        <v>1.873732588190635</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.534891448479411</v>
@@ -19861,7 +19753,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.880655562406685</v>
+        <v>1.879930719560367</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.118758129846145</v>
@@ -19950,7 +19842,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.879431691685214</v>
+        <v>1.881518628079033</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.415997171129431</v>
@@ -20039,7 +19931,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.873044653403725</v>
+        <v>1.874446586522828</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.984932524193457</v>
@@ -20128,7 +20020,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.87251617115837</v>
+        <v>1.871671030006054</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.920791235024727</v>
@@ -20217,7 +20109,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.869949897374351</v>
+        <v>1.865869834414352</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.455798737401792</v>
@@ -20306,7 +20198,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.870104065249711</v>
+        <v>1.86126427189763</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.411988155172835</v>
@@ -20395,7 +20287,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.868991216054828</v>
+        <v>1.855857067451404</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.842857129161884</v>
@@ -20484,7 +20376,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.860811420766987</v>
+        <v>1.849333928421468</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.135406776654511</v>
@@ -20573,7 +20465,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.855059477444503</v>
+        <v>1.847129865911934</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.912045493143595</v>
@@ -20662,7 +20554,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.844364504811321</v>
+        <v>1.826972097882741</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.769626851723009</v>
@@ -20751,7 +20643,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.850737533160398</v>
+        <v>1.829422346430253</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.391706591930468</v>
@@ -20840,7 +20732,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.809111362879779</v>
+        <v>1.797881285300572</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.826481765420253</v>
@@ -20929,7 +20821,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.789330140825594</v>
+        <v>1.773840743332271</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.677127765432134</v>
@@ -21018,7 +20910,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.774584672302014</v>
+        <v>1.750409876711191</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.7657569386488</v>
@@ -21107,7 +20999,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.765610433562438</v>
+        <v>1.742680141519967</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.687244786613843</v>
@@ -21196,7 +21088,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.755185185608979</v>
+        <v>1.734515225383373</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.664754161893077</v>
@@ -21285,7 +21177,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.746004834135926</v>
+        <v>1.714782268108787</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.61816537395535</v>
@@ -21374,7 +21266,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.752322813310626</v>
+        <v>1.721331037316692</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.553452042109135</v>
@@ -21463,7 +21355,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.751868437584953</v>
+        <v>1.718943972992114</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.601334398346655</v>
@@ -21552,7 +21444,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.749149631902288</v>
+        <v>1.705278473742093</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.619410042241355</v>
@@ -21641,7 +21533,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.740676989206568</v>
+        <v>1.697225230548341</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.633869903944027</v>
@@ -21730,7 +21622,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.727124401915919</v>
+        <v>1.681871553376062</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.560887672661534</v>
@@ -21819,7 +21711,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.731114815737517</v>
+        <v>1.682037856909211</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.514307012914959</v>
@@ -21908,7 +21800,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.734822055808047</v>
+        <v>1.680718927701187</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.628667968605367</v>
@@ -21997,7 +21889,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.74313697472584</v>
+        <v>1.692086418901295</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.644946165275182</v>
@@ -22086,7 +21978,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.7484175234842</v>
+        <v>1.698893136524428</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.680768197378846</v>
@@ -22175,7 +22067,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.79418335985706</v>
+        <v>1.730412241415563</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.500122119073694</v>
@@ -22264,7 +22156,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.820532198866003</v>
+        <v>1.755272942489293</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.74313502035796</v>
@@ -22550,7 +22442,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.82015631273891</v>
+        <v>1.784838033387865</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.298091004703661</v>
@@ -22639,7 +22531,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.818715252234073</v>
+        <v>1.776920637594582</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.414510638538255</v>
@@ -22728,7 +22620,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.819248254540922</v>
+        <v>1.782853537471728</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.800683285514289</v>
@@ -22817,7 +22709,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.804983922300261</v>
+        <v>1.765064277667771</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.388316318817569</v>
@@ -22906,7 +22798,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.811478394377687</v>
+        <v>1.774571609013313</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.316874957698782</v>
@@ -22995,7 +22887,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.806419757209019</v>
+        <v>1.771812976096358</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>4.296086077834523</v>
@@ -23084,7 +22976,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.808862702350608</v>
+        <v>1.775285501986125</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.164355886216175</v>
@@ -23173,7 +23065,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.803441117157185</v>
+        <v>1.769032976984789</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.480458819082954</v>
@@ -23262,7 +23154,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.809127905961166</v>
+        <v>1.776933313128971</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.097089452610575</v>
@@ -23351,7 +23243,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.81181829252042</v>
+        <v>1.783741836047636</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.239212731983744</v>
@@ -23440,7 +23332,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.812022345833505</v>
+        <v>1.78531511943577</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.975125412595375</v>
@@ -23529,7 +23421,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.816766771423209</v>
+        <v>1.78512673430162</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.661512151291076</v>
@@ -23618,7 +23510,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.814237748282371</v>
+        <v>1.78851659339358</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.882412543792319</v>
@@ -23707,7 +23599,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.814004519186586</v>
+        <v>1.787217055516648</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.120801397439617</v>
@@ -23796,7 +23688,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.814627389280475</v>
+        <v>1.784692425606266</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.044465032507203</v>
@@ -23885,7 +23777,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.81174171185345</v>
+        <v>1.789818174989961</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.954401773248687</v>
@@ -23974,7 +23866,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.813120966080761</v>
+        <v>1.794620978067289</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.101887879531189</v>
@@ -24063,7 +23955,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.815393677199767</v>
+        <v>1.797118060916082</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.053866269355045</v>
@@ -24152,7 +24044,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.822002440552456</v>
+        <v>1.804438048332522</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.761649508734854</v>
@@ -24241,7 +24133,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.830369987959078</v>
+        <v>1.812825832501039</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.368103124481238</v>
@@ -24330,7 +24222,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.841018639940451</v>
+        <v>1.823703656903401</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.962616966317688</v>
@@ -24419,7 +24311,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.840119239493327</v>
+        <v>1.823391398129525</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.028664115753719</v>
@@ -24508,7 +24400,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.842086633417101</v>
+        <v>1.824982878491753</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.720457894485575</v>
@@ -24597,7 +24489,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.847629271304637</v>
+        <v>1.825449848880343</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.24746849912457</v>
@@ -24686,7 +24578,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.852215615412242</v>
+        <v>1.829926369149242</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.435821502122931</v>
@@ -24775,7 +24667,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.850859824426753</v>
+        <v>1.830061205315661</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.336901006981882</v>
@@ -24864,7 +24756,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.851931748616828</v>
+        <v>1.829124665431199</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.738758324927738</v>
@@ -24953,7 +24845,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.851124749835703</v>
+        <v>1.832193295736299</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.355151907621761</v>
@@ -25042,7 +24934,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.848083701417492</v>
+        <v>1.828450064457245</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.914007102799191</v>
@@ -25131,7 +25023,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.848034399228407</v>
+        <v>1.832887098785356</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.043024009019525</v>
@@ -25220,7 +25112,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.850878393066366</v>
+        <v>1.836414178587254</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.280814834069618</v>
@@ -25309,7 +25201,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.853338160908673</v>
+        <v>1.837932863028299</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.52311064865055</v>
@@ -25398,7 +25290,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.851160366626512</v>
+        <v>1.828888289447708</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.23328073887579</v>
@@ -25487,7 +25379,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.850973720525969</v>
+        <v>1.827602950726946</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.200372198472953</v>
@@ -25576,7 +25468,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.843551985664855</v>
+        <v>1.819117720140564</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.576861325839362</v>
@@ -25665,7 +25557,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.850221259091089</v>
+        <v>1.819092197193297</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.276445174311324</v>
@@ -25754,7 +25646,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.853189947640947</v>
+        <v>1.820595890705518</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.905986916386464</v>
@@ -25843,7 +25735,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.850004372162923</v>
+        <v>1.821955213504432</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.896966507683783</v>
@@ -25932,7 +25824,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.842994690815698</v>
+        <v>1.814045053479936</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.081271279921137</v>
@@ -26021,7 +25913,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.840700843538877</v>
+        <v>1.805679290191179</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.127920410867088</v>
@@ -26110,7 +26002,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.844849992214215</v>
+        <v>1.803157484278902</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.981787667776875</v>
@@ -26199,7 +26091,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.836167256238989</v>
+        <v>1.796822569069661</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.759317490573327</v>
@@ -26288,7 +26180,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.83519054439337</v>
+        <v>1.792277854121303</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.132994225386184</v>
@@ -26377,7 +26269,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.83181520253822</v>
+        <v>1.786796099277309</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.21076988434279</v>
@@ -26466,7 +26358,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.780930237395139</v>
+        <v>1.749629350880829</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.629149244255321</v>
@@ -26555,7 +26447,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.758684894810818</v>
+        <v>1.724688272575936</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.656117334325964</v>
@@ -26644,7 +26536,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.753991530970547</v>
+        <v>1.718838932287758</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.600207567649933</v>
@@ -26733,7 +26625,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.746187167833659</v>
+        <v>1.716926120360039</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.553532940937325</v>
@@ -26822,7 +26714,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.739529203645077</v>
+        <v>1.712202422456379</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.571450532780365</v>
@@ -26911,7 +26803,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.743434927923535</v>
+        <v>1.718194874337099</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.466735993751497</v>
@@ -27000,7 +26892,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.735886490331022</v>
+        <v>1.708633414135472</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.489044768330864</v>
@@ -27089,7 +26981,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.732684582892642</v>
+        <v>1.70306773645878</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.488543428770222</v>
@@ -27178,7 +27070,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.734409478570368</v>
+        <v>1.696421996135592</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.49329496391374</v>
@@ -27267,7 +27159,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.735642375648475</v>
+        <v>1.696472230352965</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.501460954052514</v>
@@ -27356,7 +27248,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.726529271172057</v>
+        <v>1.689266483299658</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.58818361698453</v>
@@ -27445,7 +27337,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.718773334433447</v>
+        <v>1.684357502251211</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.453995429381719</v>
@@ -27534,7 +27426,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.732424450691746</v>
+        <v>1.692727208145096</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.477239561975729</v>
@@ -27623,7 +27515,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.728083575308132</v>
+        <v>1.681890001251062</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.563206393371243</v>
@@ -27712,7 +27604,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.740630783341398</v>
+        <v>1.697844680635808</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.727348805400991</v>
@@ -27801,7 +27693,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.793319805671919</v>
+        <v>1.730438522090208</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.062545899157857</v>
@@ -27890,7 +27782,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.81940625043311</v>
+        <v>1.754924216074996</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.323517650893004</v>
@@ -28176,7 +28068,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.598469684192239</v>
+        <v>1.594296381388499</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.735747760843365</v>
@@ -28265,7 +28157,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.596415192264001</v>
+        <v>1.595075481394055</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.52049441175524</v>
@@ -28354,7 +28246,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.615484606780983</v>
+        <v>1.619500452575581</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.665149869612689</v>
@@ -28443,7 +28335,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.621021332390991</v>
+        <v>1.619982951797767</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.638557594243121</v>
@@ -28532,7 +28424,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.621536046461931</v>
+        <v>1.617309206987528</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.633134083119172</v>
@@ -28621,7 +28513,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.608062411419297</v>
+        <v>1.606181413688958</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.633831941587253</v>
@@ -28710,7 +28602,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.60388972107665</v>
+        <v>1.597835550126383</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.753790064910446</v>
@@ -28799,7 +28691,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.612443223735853</v>
+        <v>1.601217574548614</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.66044011515063</v>
@@ -28888,7 +28780,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.610106213237868</v>
+        <v>1.598329465115446</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.739423255901057</v>
@@ -28977,7 +28869,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.622508568175829</v>
+        <v>1.610940230405506</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.761980474547074</v>
@@ -29066,7 +28958,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.630477334186276</v>
+        <v>1.618824470522426</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.500871424062542</v>
@@ -29155,7 +29047,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.648844557378828</v>
+        <v>1.631259594713143</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.509904307333059</v>
@@ -29244,7 +29136,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.639093729372942</v>
+        <v>1.625726298858533</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.304223926437068</v>
@@ -29333,7 +29225,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.649495578931547</v>
+        <v>1.630262421962773</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.379340162331664</v>
@@ -29422,7 +29314,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.653067105680687</v>
+        <v>1.631919682537703</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.440184067210812</v>
@@ -29511,7 +29403,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.636094628251086</v>
+        <v>1.61252992001643</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.243898610966226</v>
@@ -29600,7 +29492,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.64348131023412</v>
+        <v>1.624378445916204</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.877974729804885</v>
@@ -29689,7 +29581,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.641250736870516</v>
+        <v>1.61669536863686</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.138940169377262</v>
@@ -29778,7 +29670,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.649829608569588</v>
+        <v>1.622635180096462</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.148362618094599</v>
@@ -29867,7 +29759,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.655846703412621</v>
+        <v>1.627993461086482</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.188501986343642</v>
@@ -29956,7 +29848,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.671304388130292</v>
+        <v>1.641003059251016</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.369016333516631</v>
@@ -30045,7 +29937,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.67195544033635</v>
+        <v>1.641230344060127</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.264092725993837</v>
@@ -30134,7 +30026,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.668115361455869</v>
+        <v>1.641270654752179</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.288294413996343</v>
@@ -30223,7 +30115,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.667377240545401</v>
+        <v>1.644262827401603</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.959444123542343</v>
@@ -30312,7 +30204,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.66311885580733</v>
+        <v>1.639904759710365</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.354994354454169</v>
@@ -30401,7 +30293,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.667129630093551</v>
+        <v>1.649063751416805</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.12872841983643</v>
@@ -30490,7 +30382,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.673165581372847</v>
+        <v>1.653092598580891</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.180173992025057</v>
@@ -30579,7 +30471,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.66701947677311</v>
+        <v>1.650898140169687</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.345383010887848</v>
@@ -30668,7 +30560,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.655902540783003</v>
+        <v>1.643836283905598</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.209935528628977</v>
@@ -30757,7 +30649,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.663562200342694</v>
+        <v>1.651969795750832</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.450955074131899</v>
@@ -30846,7 +30738,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.673658209733171</v>
+        <v>1.664069721311931</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.89314089817628</v>
@@ -30935,7 +30827,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.680513565055</v>
+        <v>1.671182724650818</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.475527748414269</v>
@@ -31024,7 +30916,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.68332412449356</v>
+        <v>1.678505967919703</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.601156275739305</v>
@@ -31113,7 +31005,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.682040160947563</v>
+        <v>1.681405689782303</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.213784924735539</v>
@@ -31202,7 +31094,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.670688401352345</v>
+        <v>1.672134031822974</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.341747234957722</v>
@@ -31291,7 +31183,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.672978155688248</v>
+        <v>1.674224330597349</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.750333058413705</v>
@@ -31380,7 +31272,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.660360190733869</v>
+        <v>1.663314085649609</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.166983292818658</v>
@@ -31469,7 +31361,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.663883395726614</v>
+        <v>1.664369602826413</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.754866176755303</v>
@@ -31558,7 +31450,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.655600514438953</v>
+        <v>1.653489550505289</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.720971855853147</v>
@@ -31647,7 +31539,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.657944582321958</v>
+        <v>1.653646191062047</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.287535398749775</v>
@@ -31736,7 +31628,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.659579487472582</v>
+        <v>1.651886582079062</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.371014064726997</v>
@@ -31825,7 +31717,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.662142715942436</v>
+        <v>1.650323340149318</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.001767135823735</v>
@@ -31914,7 +31806,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.657817793656687</v>
+        <v>1.643382234216821</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.367774932148168</v>
@@ -32003,7 +31895,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.653018300740492</v>
+        <v>1.635402452772816</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.678150051661728</v>
@@ -32092,7 +31984,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.600634911242367</v>
+        <v>1.590949616481808</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.474590371276693</v>
@@ -32181,7 +32073,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.591694533711458</v>
+        <v>1.577237656304106</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.442778930418511</v>
@@ -32270,7 +32162,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.595313560076049</v>
+        <v>1.574675529425561</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.482550887518386</v>
@@ -32359,7 +32251,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.59379500920524</v>
+        <v>1.575821349658143</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.457661983516175</v>
@@ -32448,7 +32340,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.588042382063855</v>
+        <v>1.565363361503988</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.55093123586622</v>
@@ -32537,7 +32429,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.596255014418542</v>
+        <v>1.568665376102982</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.47221285341345</v>
@@ -32626,7 +32518,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.592990485398853</v>
+        <v>1.569294680423732</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.438171507192449</v>
@@ -32715,7 +32607,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.610338832184127</v>
+        <v>1.587330016205361</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.454554238450579</v>
@@ -32804,7 +32696,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.616336409221319</v>
+        <v>1.594808195897316</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.462404060071063</v>
@@ -32893,7 +32785,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.619536225626497</v>
+        <v>1.601756058090277</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.470061484477803</v>
@@ -32982,7 +32874,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.621259300868334</v>
+        <v>1.604474979975533</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.492743782903067</v>
@@ -33071,7 +32963,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.618530213975534</v>
+        <v>1.598754985352978</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.492829572467124</v>
@@ -33160,7 +33052,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.620781112129952</v>
+        <v>1.602462432132035</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.376630250815685</v>
@@ -33249,7 +33141,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.619016540100486</v>
+        <v>1.601271791383106</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.469736820602662</v>
@@ -33338,7 +33230,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.645195783569438</v>
+        <v>1.625271330191281</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.529410213552328</v>
@@ -33427,7 +33319,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.705823712474814</v>
+        <v>1.674055467913646</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.732648997243859</v>
@@ -33516,7 +33408,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.732125892853519</v>
+        <v>1.701391684582792</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.564754219157535</v>
@@ -33802,7 +33694,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.415288835737444</v>
+        <v>1.433858654111535</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.594595959457017</v>
@@ -33891,7 +33783,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.430258030077841</v>
+        <v>1.450162298358092</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.47203391079104</v>
@@ -33980,7 +33872,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.461488044666091</v>
+        <v>1.482163484185921</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.284102052695396</v>
@@ -34069,7 +33961,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.484750628943386</v>
+        <v>1.503284291060203</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.197357267009457</v>
@@ -34158,7 +34050,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.547184839308843</v>
+        <v>1.571550897641082</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.372342666620302</v>
@@ -34247,7 +34139,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.517213274278131</v>
+        <v>1.537956213233738</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.304214142339971</v>
@@ -34336,7 +34228,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.534997859137399</v>
+        <v>1.553779554707145</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.443447937952798</v>
@@ -34425,7 +34317,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.557371924528243</v>
+        <v>1.577623990067429</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.657469159164087</v>
@@ -34514,7 +34406,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.545302316243347</v>
+        <v>1.563805569889026</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.569777987908356</v>
@@ -34603,7 +34495,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.56485220958598</v>
+        <v>1.584923326576882</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.703969634930588</v>
@@ -34692,7 +34584,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.585925887940784</v>
+        <v>1.603355145916744</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.408482533232843</v>
@@ -34781,7 +34673,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.575452775764812</v>
+        <v>1.591962303085612</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.580488551467881</v>
@@ -34870,7 +34762,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.564072429040047</v>
+        <v>1.582449464618369</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.698796230548651</v>
@@ -34959,7 +34851,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.553456648546338</v>
+        <v>1.568412103091154</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.580684786922648</v>
@@ -35048,7 +34940,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.572046171131849</v>
+        <v>1.587022211495104</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.582110729360901</v>
@@ -35137,7 +35029,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.554545599699099</v>
+        <v>1.56909028156951</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.580386106724236</v>
@@ -35226,7 +35118,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.540374138004895</v>
+        <v>1.556916874961225</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.710838543606259</v>
@@ -35315,7 +35207,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.527243488235106</v>
+        <v>1.544006704697853</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.684111599396623</v>
@@ -35404,7 +35296,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.576978840674195</v>
+        <v>1.595886766705762</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.580461903407957</v>
@@ -35493,7 +35385,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.586963427515504</v>
+        <v>1.606396921072296</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.679170595878651</v>
@@ -35582,7 +35474,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.658681065622761</v>
+        <v>1.679345803956013</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.801274040212277</v>
@@ -35671,7 +35563,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.640289640504613</v>
+        <v>1.669589509116184</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.824615743050229</v>
@@ -35760,7 +35652,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.650918664022304</v>
+        <v>1.684675204010924</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.950076682591525</v>
@@ -35849,7 +35741,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.652630593435428</v>
+        <v>1.687564888682541</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.849787684464661</v>
@@ -35938,7 +35830,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.656293835127287</v>
+        <v>1.692643522184962</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.840581263993147</v>
@@ -36027,7 +35919,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.650569949275827</v>
+        <v>1.683806260979498</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.797219345743299</v>
@@ -36116,7 +36008,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.661516322494016</v>
+        <v>1.693383506276126</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.678321691112541</v>
@@ -36205,7 +36097,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.667722777682906</v>
+        <v>1.699675961020727</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.81867957451821</v>
@@ -36294,7 +36186,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.664977625830147</v>
+        <v>1.694028103843736</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.418247045773041</v>
@@ -36383,7 +36275,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.655873858980113</v>
+        <v>1.691682256383005</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.879632285058956</v>
@@ -36472,7 +36364,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.650693029364531</v>
+        <v>1.688567507270172</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.627027269367857</v>
@@ -36561,7 +36453,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.672532026630718</v>
+        <v>1.708906734432523</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.445525779266518</v>
@@ -36650,7 +36542,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.691717228364396</v>
+        <v>1.728555046780122</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.70579816284684</v>
@@ -36739,7 +36631,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.686336431179849</v>
+        <v>1.721310959259856</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.674065043859107</v>
@@ -36828,7 +36720,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.666623923888655</v>
+        <v>1.701946048651636</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.624058750132214</v>
@@ -36917,7 +36809,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.626577854222464</v>
+        <v>1.660271477211371</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.706332491389665</v>
@@ -37006,7 +36898,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.645855067188342</v>
+        <v>1.679839495528472</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.572645970230649</v>
@@ -37095,7 +36987,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.638614943887311</v>
+        <v>1.667408459074196</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.532282847708292</v>
@@ -37184,7 +37076,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.619264618108351</v>
+        <v>1.648841296526118</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.543269070749763</v>
@@ -37273,7 +37165,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.613587327792903</v>
+        <v>1.644256917753542</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.648062862175764</v>
@@ -37362,7 +37254,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.615164518132909</v>
+        <v>1.646578171886809</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.672113874302381</v>
@@ -37451,7 +37343,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.584701911789427</v>
+        <v>1.615376541102293</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.768010961009386</v>
@@ -37540,7 +37432,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.564303925158027</v>
+        <v>1.588951595404707</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.456526120181777</v>
@@ -37629,7 +37521,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.552306061638985</v>
+        <v>1.583321807099488</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.469478465932876</v>
@@ -37718,7 +37610,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.423622994131199</v>
+        <v>1.452553988428402</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.658921231697357</v>
@@ -37807,7 +37699,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.413614299556612</v>
+        <v>1.44292696143404</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.675035806569363</v>
@@ -37896,7 +37788,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.414051922173901</v>
+        <v>1.437164118535015</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.680200978321784</v>
@@ -37985,7 +37877,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.39927533839954</v>
+        <v>1.421382894545808</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.676538236427151</v>
@@ -38074,7 +37966,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.387015710765138</v>
+        <v>1.406615090771282</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.669346287893004</v>
@@ -38163,7 +38055,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.383769473990643</v>
+        <v>1.39828661322647</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.64520613716422</v>
@@ -38252,7 +38144,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.396887888039378</v>
+        <v>1.409750304200106</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.637231629868064</v>
@@ -38341,7 +38233,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.392558820681642</v>
+        <v>1.402142262287614</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.640664146272928</v>
@@ -38430,7 +38322,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.386237250243772</v>
+        <v>1.393146442079959</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.65188085804428</v>
@@ -38519,7 +38411,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.383511014432383</v>
+        <v>1.38613896202889</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.634495511787583</v>
@@ -38608,7 +38500,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.356529864602139</v>
+        <v>1.358196549884961</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.624575871664848</v>
@@ -38697,7 +38589,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.342158601936063</v>
+        <v>1.341533784638159</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.615907934866094</v>
@@ -38786,7 +38678,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.363503301254672</v>
+        <v>1.363453946263268</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.593315225637092</v>
@@ -38875,7 +38767,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.366552106257038</v>
+        <v>1.36381672271114</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.601932404091201</v>
@@ -38964,7 +38856,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.382699755826597</v>
+        <v>1.37927520103167</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.692122100874394</v>
@@ -39053,7 +38945,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.51889314420827</v>
+        <v>1.504967417476114</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.159483095919468</v>
@@ -39142,7 +39034,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.554113744094384</v>
+        <v>1.537658005565624</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.721900595234005</v>
